--- a/docs/mcode-r4/onco-core-GeneticVariantFound.xlsx
+++ b/docs/mcode-r4/onco-core-GeneticVariantFound.xlsx
@@ -444,7 +444,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest|ServiceRequest)
+    <t xml:space="preserve">Reference(MedicationRequest|ServiceRequest)
 </t>
   </si>
   <si>
@@ -651,7 +651,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/observation-category</t>
+    <t>http://terminology.hl7.org/CodeSystem/observation-category</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -1267,7 +1267,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-device)
+    <t xml:space="preserve">Reference(Device)
 </t>
   </si>
   <si>
@@ -1489,7 +1489,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference|Media|QuestionnaireResponse|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Observation)
+    <t xml:space="preserve">Reference(DocumentReference|Media|QuestionnaireResponse|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Observation)
 </t>
   </si>
   <si>
@@ -1707,13 +1707,13 @@
     <t>Fixed_48003-8</t>
   </si>
   <si>
-    <t>DNA sequence variation identifier</t>
+    <t>DNA sequence variation identifier [Identifier]</t>
   </si>
   <si>
     <t>48003-8</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/clinvar</t>
+    <t>http://hl7.org/fhir/us/mcode/ValueSet/onco-core-ClinVarVS</t>
   </si>
   <si>
     <t>onco-core-VariantFoundHGVSName</t>
@@ -1749,7 +1749,7 @@
     <t>Fixed_47998-0</t>
   </si>
   <si>
-    <t>DNA sequence variation display name</t>
+    <t>DNA sequence variation display name [Text] Narrative</t>
   </si>
   <si>
     <t>47998-0</t>

--- a/docs/mcode-r4/onco-core-GeneticVariantFound.xlsx
+++ b/docs/mcode-r4/onco-core-GeneticVariantFound.xlsx
@@ -20021,7 +20021,7 @@
         <v>44</v>
       </c>
       <c r="F151" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G151" t="s" s="2">
         <v>46</v>
@@ -23631,7 +23631,7 @@
         <v>44</v>
       </c>
       <c r="F181" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G181" t="s" s="2">
         <v>46</v>
@@ -24471,7 +24471,7 @@
         <v>44</v>
       </c>
       <c r="F188" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G188" t="s" s="2">
         <v>46</v>
